--- a/rpm6100.xlsx
+++ b/rpm6100.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\US3---Dopplersonographie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4ED3164-78DE-4501-B6A5-6E47E89999EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC27C10E-C701-46B9-ABAD-372833BE8453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="4245" windowWidth="21600" windowHeight="11295" xr2:uid="{2C32ED4B-2692-4C0F-BB8D-6DAA60474451}"/>
+    <workbookView xWindow="3720" yWindow="5355" windowWidth="21600" windowHeight="11295" xr2:uid="{2C32ED4B-2692-4C0F-BB8D-6DAA60474451}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Tiefe</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>v in m/s</t>
+  </si>
+  <si>
+    <t>Tiefe in mm</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD1752-6293-4CAA-AE24-B3A8558F03A2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+      <selection activeCell="G5" activeCellId="1" sqref="B2:B17 G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,272 +420,339 @@
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12</v>
       </c>
       <c r="B2">
+        <f>(A2-12.28)/4*6</f>
+        <v>-0.41999999999999904</v>
+      </c>
+      <c r="C2">
         <v>38.200000000000003</v>
       </c>
-      <c r="C2" s="2">
-        <f>B2/100</f>
+      <c r="D2" s="2">
+        <f>C2/100</f>
         <v>0.38200000000000001</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>A2+0.5</f>
         <v>12.5</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B17" si="0">(A3-12.28)/4*6</f>
+        <v>0.33000000000000096</v>
+      </c>
+      <c r="C3">
         <v>44.6</v>
       </c>
-      <c r="C3" s="2">
-        <f t="shared" ref="C3:C17" si="0">B3/100</f>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:D17" si="1">C3/100</f>
         <v>0.44600000000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="1">A3+0.5</f>
+        <f t="shared" ref="A4:A17" si="2">A3+0.5</f>
         <v>13</v>
       </c>
       <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.080000000000001</v>
+      </c>
+      <c r="C4">
         <v>50.9</v>
       </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
         <v>0.50900000000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>2600</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="B5">
+        <f t="shared" si="0"/>
+        <v>1.830000000000001</v>
+      </c>
+      <c r="C5">
         <v>57.3</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" si="0"/>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
         <v>0.57299999999999995</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B6">
+        <f t="shared" si="0"/>
+        <v>2.580000000000001</v>
+      </c>
+      <c r="C6">
         <v>66.8</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
         <v>0.66799999999999993</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3500</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14.5</v>
       </c>
       <c r="B7">
+        <f t="shared" si="0"/>
+        <v>3.330000000000001</v>
+      </c>
+      <c r="C7">
         <v>76.400000000000006</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
         <v>0.76400000000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B8">
+        <f t="shared" si="0"/>
+        <v>4.080000000000001</v>
+      </c>
+      <c r="C8">
         <v>82.7</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
         <v>0.82700000000000007</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.5</v>
       </c>
       <c r="B9">
+        <f t="shared" si="0"/>
+        <v>4.830000000000001</v>
+      </c>
+      <c r="C9">
         <v>82.7</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
         <v>0.82700000000000007</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>2400</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B10">
+        <f t="shared" si="0"/>
+        <v>5.580000000000001</v>
+      </c>
+      <c r="C10">
         <v>82.7</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
         <v>0.82700000000000007</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16.5</v>
       </c>
       <c r="B11">
+        <f t="shared" si="0"/>
+        <v>6.330000000000001</v>
+      </c>
+      <c r="C11">
         <v>73.2</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
         <v>0.73199999999999998</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1800</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7.080000000000001</v>
+      </c>
+      <c r="C12" s="1">
         <v>70</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
+        <v>7.830000000000001</v>
+      </c>
+      <c r="C13">
         <v>66.8</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
         <v>0.66799999999999993</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B14">
+        <f t="shared" si="0"/>
+        <v>8.5800000000000018</v>
+      </c>
+      <c r="C14">
         <v>66.8</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
         <v>0.66799999999999993</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1200</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18.5</v>
       </c>
       <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9.3300000000000018</v>
+      </c>
+      <c r="C15">
         <v>66.8</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
         <v>0.66799999999999993</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1150</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>10.080000000000002</v>
+      </c>
+      <c r="C16" s="1">
         <v>70</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.5</v>
       </c>
       <c r="B17">
+        <f t="shared" si="0"/>
+        <v>10.830000000000002</v>
+      </c>
+      <c r="C17">
         <v>73.2</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
         <v>0.73199999999999998</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>800</v>
       </c>
     </row>
